--- a/0_0_Data/2_Processed_Data/2_GVA_Evaluation_series/first_release_absolute_GVA.xlsx
+++ b/0_0_Data/2_Processed_Data/2_GVA_Evaluation_series/first_release_absolute_GVA.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1037,6 +1037,14 @@
         <v>105.13</v>
       </c>
     </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B82">
+        <v>105.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_0_Data/2_Processed_Data/2_GVA_Evaluation_series/first_release_absolute_GVA.xlsx
+++ b/0_0_Data/2_Processed_Data/2_GVA_Evaluation_series/first_release_absolute_GVA.xlsx
@@ -14,21 +14,261 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>value</t>
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>2005Q1</t>
+  </si>
+  <si>
+    <t>2005Q2</t>
+  </si>
+  <si>
+    <t>2005Q3</t>
+  </si>
+  <si>
+    <t>2005Q4</t>
+  </si>
+  <si>
+    <t>2006Q1</t>
+  </si>
+  <si>
+    <t>2006Q2</t>
+  </si>
+  <si>
+    <t>2006Q3</t>
+  </si>
+  <si>
+    <t>2006Q4</t>
+  </si>
+  <si>
+    <t>2007Q1</t>
+  </si>
+  <si>
+    <t>2007Q2</t>
+  </si>
+  <si>
+    <t>2007Q3</t>
+  </si>
+  <si>
+    <t>2007Q4</t>
+  </si>
+  <si>
+    <t>2008Q1</t>
+  </si>
+  <si>
+    <t>2008Q2</t>
+  </si>
+  <si>
+    <t>2008Q3</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2009Q1</t>
+  </si>
+  <si>
+    <t>2009Q2</t>
+  </si>
+  <si>
+    <t>2009Q3</t>
+  </si>
+  <si>
+    <t>2009Q4</t>
+  </si>
+  <si>
+    <t>2010Q1</t>
+  </si>
+  <si>
+    <t>2010Q2</t>
+  </si>
+  <si>
+    <t>2010Q3</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q1</t>
+  </si>
+  <si>
+    <t>2011Q3</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q1</t>
+  </si>
+  <si>
+    <t>2012Q2</t>
+  </si>
+  <si>
+    <t>2012Q3</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q1</t>
+  </si>
+  <si>
+    <t>2013Q2</t>
+  </si>
+  <si>
+    <t>2013Q3</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q1</t>
+  </si>
+  <si>
+    <t>2014Q3</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q1</t>
+  </si>
+  <si>
+    <t>2015Q2</t>
+  </si>
+  <si>
+    <t>2015Q3</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q1</t>
+  </si>
+  <si>
+    <t>2016Q2</t>
+  </si>
+  <si>
+    <t>2016Q3</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q1</t>
+  </si>
+  <si>
+    <t>2017Q2</t>
+  </si>
+  <si>
+    <t>2017Q3</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q1</t>
+  </si>
+  <si>
+    <t>2018Q2</t>
+  </si>
+  <si>
+    <t>2018Q3</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q1</t>
+  </si>
+  <si>
+    <t>2019Q2</t>
+  </si>
+  <si>
+    <t>2019Q3</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q1</t>
+  </si>
+  <si>
+    <t>2020Q2</t>
+  </si>
+  <si>
+    <t>2020Q3</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -81,12 +321,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -398,648 +635,648 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>38398</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>104.6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>38488</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>104.66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>38579</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>104.9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>38671</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>105.23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>38763</v>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>105.69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>38853</v>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>106.88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
-        <v>38944</v>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>107.8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
-        <v>39036</v>
+      <c r="A9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>108.54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
-        <v>39128</v>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>109.48</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
-        <v>39218</v>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>109.93</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
-        <v>39309</v>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>110.66</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>39401</v>
+      <c r="A13" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>111.1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
-        <v>39493</v>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>112.51</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
-        <v>39584</v>
+      <c r="A15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>112.39</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>39675</v>
+      <c r="A16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>111.87</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2">
-        <v>39767</v>
+      <c r="A17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>109.53</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2">
-        <v>39859</v>
+      <c r="A18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>104.68</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2">
-        <v>39949</v>
+      <c r="A19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
         <v>105.2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2">
-        <v>40040</v>
+      <c r="A20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>106.02</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2">
-        <v>40132</v>
+      <c r="A21" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
         <v>105.94</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2">
-        <v>40224</v>
+      <c r="A22" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
         <v>107.34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2">
-        <v>40314</v>
+      <c r="A23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
         <v>110.05</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2">
-        <v>40405</v>
+      <c r="A24" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
         <v>110.99</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2">
-        <v>40497</v>
+      <c r="A25" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
         <v>111.6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2">
-        <v>40589</v>
+      <c r="A26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
         <v>113.11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2">
-        <v>40770</v>
+      <c r="A27" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
         <v>110.6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2">
-        <v>40862</v>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
         <v>110.71</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2">
-        <v>40954</v>
+      <c r="A29" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
         <v>110.97</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2">
-        <v>41045</v>
+      <c r="A30" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
         <v>112.06</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2">
-        <v>41136</v>
+      <c r="A31" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B31">
         <v>112.08</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2">
-        <v>41228</v>
+      <c r="A32" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
         <v>111.54</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2">
-        <v>41320</v>
+      <c r="A33" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
         <v>111.66</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2">
-        <v>41410</v>
+      <c r="A34" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B34">
         <v>112.41</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2">
-        <v>41501</v>
+      <c r="A35" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B35">
         <v>112.81</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2">
-        <v>41593</v>
+      <c r="A36" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
         <v>113.7</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2">
-        <v>41685</v>
+      <c r="A37" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B37">
         <v>114.26</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2">
-        <v>41866</v>
+      <c r="A38" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B38">
         <v>105.83</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2">
-        <v>41958</v>
+      <c r="A39" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B39">
         <v>106.23</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2">
-        <v>42050</v>
+      <c r="A40" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B40">
         <v>106.9</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2">
-        <v>42140</v>
+      <c r="A41" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B41">
         <v>107.53</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2">
-        <v>42231</v>
+      <c r="A42" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B42">
         <v>107.71</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2">
-        <v>42323</v>
+      <c r="A43" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B43">
         <v>107.62</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2">
-        <v>42415</v>
+      <c r="A44" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B44">
         <v>108.58</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2">
-        <v>42506</v>
+      <c r="A45" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B45">
         <v>109.59</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2">
-        <v>42597</v>
+      <c r="A46" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B46">
         <v>109.73</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2">
-        <v>42689</v>
+      <c r="A47" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B47">
         <v>110.19</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2">
-        <v>42781</v>
+      <c r="A48" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B48">
         <v>110.78</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2">
-        <v>42871</v>
+      <c r="A49" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B49">
         <v>112.33</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2">
-        <v>42962</v>
+      <c r="A50" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B50">
         <v>113.67</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2">
-        <v>43054</v>
+      <c r="A51" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B51">
         <v>114.27</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2">
-        <v>43146</v>
+      <c r="A52" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B52">
         <v>114.56</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="2">
-        <v>43236</v>
+      <c r="A53" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B53">
         <v>115.47</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="2">
-        <v>43327</v>
+      <c r="A54" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B54">
         <v>115.28</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2">
-        <v>43419</v>
+      <c r="A55" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B55">
         <v>115.34</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="2">
-        <v>43511</v>
+      <c r="A56" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B56">
         <v>115.83</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="2">
-        <v>43601</v>
+      <c r="A57" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B57">
         <v>106.91</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="2">
-        <v>43692</v>
+      <c r="A58" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B58">
         <v>106.83</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="2">
-        <v>43784</v>
+      <c r="A59" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B59">
         <v>107.13</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="2">
-        <v>43876</v>
+      <c r="A60" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B60">
         <v>104.87</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="2">
-        <v>43967</v>
+      <c r="A61" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B61">
         <v>94.76000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="2">
-        <v>44058</v>
+      <c r="A62" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B62">
         <v>102.01</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="2">
-        <v>44150</v>
+      <c r="A63" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B63">
         <v>101.96</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="2">
-        <v>44242</v>
+      <c r="A64" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B64">
         <v>102.06</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="2">
-        <v>44332</v>
+      <c r="A65" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B65">
         <v>103.53</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="2">
-        <v>44423</v>
+      <c r="A66" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B66">
         <v>105.93</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="2">
-        <v>44515</v>
+      <c r="A67" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B67">
         <v>105.64</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="2">
-        <v>44607</v>
+      <c r="A68" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B68">
         <v>106.13</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="2">
-        <v>44697</v>
+      <c r="A69" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B69">
         <v>107.03</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="2">
-        <v>44788</v>
+      <c r="A70" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B70">
         <v>108.22</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="2">
-        <v>44880</v>
+      <c r="A71" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B71">
         <v>106.82</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="2">
-        <v>44972</v>
+      <c r="A72" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B72">
         <v>107.9</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="2">
-        <v>45062</v>
+      <c r="A73" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B73">
         <v>107.29</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="2">
-        <v>45153</v>
+      <c r="A74" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B74">
         <v>107.88</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="2">
-        <v>45245</v>
+      <c r="A75" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B75">
         <v>107.51</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="2">
-        <v>45337</v>
+      <c r="A76" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B76">
         <v>107.95</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="2">
-        <v>45428</v>
+      <c r="A77" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B77">
         <v>106.23</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="2">
-        <v>45519</v>
+      <c r="A78" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B78">
         <v>105.49</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="2">
-        <v>45611</v>
+      <c r="A79" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B79">
         <v>105.04</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="2">
-        <v>45703</v>
+      <c r="A80" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B80">
         <v>105.72</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="2">
-        <v>45793</v>
+      <c r="A81" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B81">
         <v>105.13</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="2">
-        <v>45884</v>
+      <c r="A82" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B82">
         <v>105.26</v>

--- a/0_0_Data/2_Processed_Data/2_GVA_Evaluation_series/first_release_absolute_GVA.xlsx
+++ b/0_0_Data/2_Processed_Data/2_GVA_Evaluation_series/first_release_absolute_GVA.xlsx
@@ -14,261 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>value</t>
   </si>
   <si>
     <t>date</t>
   </si>
-  <si>
-    <t>2005Q1</t>
-  </si>
-  <si>
-    <t>2005Q2</t>
-  </si>
-  <si>
-    <t>2005Q3</t>
-  </si>
-  <si>
-    <t>2005Q4</t>
-  </si>
-  <si>
-    <t>2006Q1</t>
-  </si>
-  <si>
-    <t>2006Q2</t>
-  </si>
-  <si>
-    <t>2006Q3</t>
-  </si>
-  <si>
-    <t>2006Q4</t>
-  </si>
-  <si>
-    <t>2007Q1</t>
-  </si>
-  <si>
-    <t>2007Q2</t>
-  </si>
-  <si>
-    <t>2007Q3</t>
-  </si>
-  <si>
-    <t>2007Q4</t>
-  </si>
-  <si>
-    <t>2008Q1</t>
-  </si>
-  <si>
-    <t>2008Q2</t>
-  </si>
-  <si>
-    <t>2008Q3</t>
-  </si>
-  <si>
-    <t>2008Q4</t>
-  </si>
-  <si>
-    <t>2009Q1</t>
-  </si>
-  <si>
-    <t>2009Q2</t>
-  </si>
-  <si>
-    <t>2009Q3</t>
-  </si>
-  <si>
-    <t>2009Q4</t>
-  </si>
-  <si>
-    <t>2010Q1</t>
-  </si>
-  <si>
-    <t>2010Q2</t>
-  </si>
-  <si>
-    <t>2010Q3</t>
-  </si>
-  <si>
-    <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q1</t>
-  </si>
-  <si>
-    <t>2011Q3</t>
-  </si>
-  <si>
-    <t>2011Q4</t>
-  </si>
-  <si>
-    <t>2012Q1</t>
-  </si>
-  <si>
-    <t>2012Q2</t>
-  </si>
-  <si>
-    <t>2012Q3</t>
-  </si>
-  <si>
-    <t>2012Q4</t>
-  </si>
-  <si>
-    <t>2013Q1</t>
-  </si>
-  <si>
-    <t>2013Q2</t>
-  </si>
-  <si>
-    <t>2013Q3</t>
-  </si>
-  <si>
-    <t>2013Q4</t>
-  </si>
-  <si>
-    <t>2014Q1</t>
-  </si>
-  <si>
-    <t>2014Q3</t>
-  </si>
-  <si>
-    <t>2014Q4</t>
-  </si>
-  <si>
-    <t>2015Q1</t>
-  </si>
-  <si>
-    <t>2015Q2</t>
-  </si>
-  <si>
-    <t>2015Q3</t>
-  </si>
-  <si>
-    <t>2015Q4</t>
-  </si>
-  <si>
-    <t>2016Q1</t>
-  </si>
-  <si>
-    <t>2016Q2</t>
-  </si>
-  <si>
-    <t>2016Q3</t>
-  </si>
-  <si>
-    <t>2016Q4</t>
-  </si>
-  <si>
-    <t>2017Q1</t>
-  </si>
-  <si>
-    <t>2017Q2</t>
-  </si>
-  <si>
-    <t>2017Q3</t>
-  </si>
-  <si>
-    <t>2017Q4</t>
-  </si>
-  <si>
-    <t>2018Q1</t>
-  </si>
-  <si>
-    <t>2018Q2</t>
-  </si>
-  <si>
-    <t>2018Q3</t>
-  </si>
-  <si>
-    <t>2018Q4</t>
-  </si>
-  <si>
-    <t>2019Q1</t>
-  </si>
-  <si>
-    <t>2019Q2</t>
-  </si>
-  <si>
-    <t>2019Q3</t>
-  </si>
-  <si>
-    <t>2019Q4</t>
-  </si>
-  <si>
-    <t>2020Q1</t>
-  </si>
-  <si>
-    <t>2020Q2</t>
-  </si>
-  <si>
-    <t>2020Q3</t>
-  </si>
-  <si>
-    <t>2020Q4</t>
-  </si>
-  <si>
-    <t>2021Q1</t>
-  </si>
-  <si>
-    <t>2021Q2</t>
-  </si>
-  <si>
-    <t>2021Q3</t>
-  </si>
-  <si>
-    <t>2021Q4</t>
-  </si>
-  <si>
-    <t>2022Q1</t>
-  </si>
-  <si>
-    <t>2022Q2</t>
-  </si>
-  <si>
-    <t>2022Q3</t>
-  </si>
-  <si>
-    <t>2022Q4</t>
-  </si>
-  <si>
-    <t>2023Q1</t>
-  </si>
-  <si>
-    <t>2023Q2</t>
-  </si>
-  <si>
-    <t>2023Q3</t>
-  </si>
-  <si>
-    <t>2023Q4</t>
-  </si>
-  <si>
-    <t>2024Q1</t>
-  </si>
-  <si>
-    <t>2024Q2</t>
-  </si>
-  <si>
-    <t>2024Q3</t>
-  </si>
-  <si>
-    <t>2024Q4</t>
-  </si>
-  <si>
-    <t>2025Q1</t>
-  </si>
-  <si>
-    <t>2025Q2</t>
-  </si>
-  <si>
-    <t>2025Q3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -321,9 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -635,648 +398,648 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2">
+        <v>38398</v>
       </c>
       <c r="B2">
         <v>104.6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>38488</v>
       </c>
       <c r="B3">
         <v>104.66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="2">
+        <v>38579</v>
       </c>
       <c r="B4">
         <v>104.9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="2">
+        <v>38671</v>
       </c>
       <c r="B5">
         <v>105.23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" s="2">
+        <v>38763</v>
       </c>
       <c r="B6">
         <v>105.69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="2">
+        <v>38853</v>
       </c>
       <c r="B7">
         <v>106.88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="2">
+        <v>38944</v>
       </c>
       <c r="B8">
         <v>107.8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="2">
+        <v>39036</v>
       </c>
       <c r="B9">
         <v>108.54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+      <c r="A10" s="2">
+        <v>39128</v>
       </c>
       <c r="B10">
         <v>109.48</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+      <c r="A11" s="2">
+        <v>39218</v>
       </c>
       <c r="B11">
         <v>109.93</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="A12" s="2">
+        <v>39309</v>
       </c>
       <c r="B12">
         <v>110.66</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" s="2">
+        <v>39401</v>
       </c>
       <c r="B13">
         <v>111.1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" s="2">
+        <v>39493</v>
       </c>
       <c r="B14">
         <v>112.51</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
+      <c r="A15" s="2">
+        <v>39584</v>
       </c>
       <c r="B15">
         <v>112.39</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16" s="2">
+        <v>39675</v>
       </c>
       <c r="B16">
         <v>111.87</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
+      <c r="A17" s="2">
+        <v>39767</v>
       </c>
       <c r="B17">
         <v>109.53</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
+      <c r="A18" s="2">
+        <v>39859</v>
       </c>
       <c r="B18">
         <v>104.68</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
+      <c r="A19" s="2">
+        <v>39949</v>
       </c>
       <c r="B19">
         <v>105.2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
+      <c r="A20" s="2">
+        <v>40040</v>
       </c>
       <c r="B20">
         <v>106.02</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
+      <c r="A21" s="2">
+        <v>40132</v>
       </c>
       <c r="B21">
         <v>105.94</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
+      <c r="A22" s="2">
+        <v>40224</v>
       </c>
       <c r="B22">
         <v>107.34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
+      <c r="A23" s="2">
+        <v>40314</v>
       </c>
       <c r="B23">
         <v>110.05</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
+      <c r="A24" s="2">
+        <v>40405</v>
       </c>
       <c r="B24">
         <v>110.99</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
+      <c r="A25" s="2">
+        <v>40497</v>
       </c>
       <c r="B25">
         <v>111.6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
+      <c r="A26" s="2">
+        <v>40589</v>
       </c>
       <c r="B26">
         <v>113.11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
+      <c r="A27" s="2">
+        <v>40770</v>
       </c>
       <c r="B27">
         <v>110.6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
+      <c r="A28" s="2">
+        <v>40862</v>
       </c>
       <c r="B28">
         <v>110.71</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
+      <c r="A29" s="2">
+        <v>40954</v>
       </c>
       <c r="B29">
         <v>110.97</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
+      <c r="A30" s="2">
+        <v>41045</v>
       </c>
       <c r="B30">
         <v>112.06</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
+      <c r="A31" s="2">
+        <v>41136</v>
       </c>
       <c r="B31">
         <v>112.08</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
+      <c r="A32" s="2">
+        <v>41228</v>
       </c>
       <c r="B32">
         <v>111.54</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
+      <c r="A33" s="2">
+        <v>41320</v>
       </c>
       <c r="B33">
         <v>111.66</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
+      <c r="A34" s="2">
+        <v>41410</v>
       </c>
       <c r="B34">
         <v>112.41</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
+      <c r="A35" s="2">
+        <v>41501</v>
       </c>
       <c r="B35">
         <v>112.81</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
+      <c r="A36" s="2">
+        <v>41593</v>
       </c>
       <c r="B36">
         <v>113.7</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
+      <c r="A37" s="2">
+        <v>41685</v>
       </c>
       <c r="B37">
         <v>114.26</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
+      <c r="A38" s="2">
+        <v>41866</v>
       </c>
       <c r="B38">
         <v>105.83</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
+      <c r="A39" s="2">
+        <v>41958</v>
       </c>
       <c r="B39">
         <v>106.23</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
+      <c r="A40" s="2">
+        <v>42050</v>
       </c>
       <c r="B40">
         <v>106.9</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
+      <c r="A41" s="2">
+        <v>42140</v>
       </c>
       <c r="B41">
         <v>107.53</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
+      <c r="A42" s="2">
+        <v>42231</v>
       </c>
       <c r="B42">
         <v>107.71</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
+      <c r="A43" s="2">
+        <v>42323</v>
       </c>
       <c r="B43">
         <v>107.62</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
+      <c r="A44" s="2">
+        <v>42415</v>
       </c>
       <c r="B44">
         <v>108.58</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
+      <c r="A45" s="2">
+        <v>42506</v>
       </c>
       <c r="B45">
         <v>109.59</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
+      <c r="A46" s="2">
+        <v>42597</v>
       </c>
       <c r="B46">
         <v>109.73</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>47</v>
+      <c r="A47" s="2">
+        <v>42689</v>
       </c>
       <c r="B47">
         <v>110.19</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
+      <c r="A48" s="2">
+        <v>42781</v>
       </c>
       <c r="B48">
         <v>110.78</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
+      <c r="A49" s="2">
+        <v>42871</v>
       </c>
       <c r="B49">
         <v>112.33</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
+      <c r="A50" s="2">
+        <v>42962</v>
       </c>
       <c r="B50">
         <v>113.67</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>51</v>
+      <c r="A51" s="2">
+        <v>43054</v>
       </c>
       <c r="B51">
         <v>114.27</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>52</v>
+      <c r="A52" s="2">
+        <v>43146</v>
       </c>
       <c r="B52">
         <v>114.56</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
+      <c r="A53" s="2">
+        <v>43236</v>
       </c>
       <c r="B53">
         <v>115.47</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
+      <c r="A54" s="2">
+        <v>43327</v>
       </c>
       <c r="B54">
         <v>115.28</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
+      <c r="A55" s="2">
+        <v>43419</v>
       </c>
       <c r="B55">
         <v>115.34</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
+      <c r="A56" s="2">
+        <v>43511</v>
       </c>
       <c r="B56">
         <v>115.83</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
+      <c r="A57" s="2">
+        <v>43601</v>
       </c>
       <c r="B57">
         <v>106.91</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
+      <c r="A58" s="2">
+        <v>43692</v>
       </c>
       <c r="B58">
         <v>106.83</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
+      <c r="A59" s="2">
+        <v>43784</v>
       </c>
       <c r="B59">
         <v>107.13</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
+      <c r="A60" s="2">
+        <v>43876</v>
       </c>
       <c r="B60">
         <v>104.87</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
+      <c r="A61" s="2">
+        <v>43967</v>
       </c>
       <c r="B61">
         <v>94.76000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
+      <c r="A62" s="2">
+        <v>44058</v>
       </c>
       <c r="B62">
         <v>102.01</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>63</v>
+      <c r="A63" s="2">
+        <v>44150</v>
       </c>
       <c r="B63">
         <v>101.96</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>64</v>
+      <c r="A64" s="2">
+        <v>44242</v>
       </c>
       <c r="B64">
         <v>102.06</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>65</v>
+      <c r="A65" s="2">
+        <v>44332</v>
       </c>
       <c r="B65">
         <v>103.53</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
+      <c r="A66" s="2">
+        <v>44423</v>
       </c>
       <c r="B66">
         <v>105.93</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>67</v>
+      <c r="A67" s="2">
+        <v>44515</v>
       </c>
       <c r="B67">
         <v>105.64</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
+      <c r="A68" s="2">
+        <v>44607</v>
       </c>
       <c r="B68">
         <v>106.13</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>69</v>
+      <c r="A69" s="2">
+        <v>44697</v>
       </c>
       <c r="B69">
         <v>107.03</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>70</v>
+      <c r="A70" s="2">
+        <v>44788</v>
       </c>
       <c r="B70">
         <v>108.22</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>71</v>
+      <c r="A71" s="2">
+        <v>44880</v>
       </c>
       <c r="B71">
         <v>106.82</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>72</v>
+      <c r="A72" s="2">
+        <v>44972</v>
       </c>
       <c r="B72">
         <v>107.9</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>73</v>
+      <c r="A73" s="2">
+        <v>45062</v>
       </c>
       <c r="B73">
         <v>107.29</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>74</v>
+      <c r="A74" s="2">
+        <v>45153</v>
       </c>
       <c r="B74">
         <v>107.88</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>75</v>
+      <c r="A75" s="2">
+        <v>45245</v>
       </c>
       <c r="B75">
         <v>107.51</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>76</v>
+      <c r="A76" s="2">
+        <v>45337</v>
       </c>
       <c r="B76">
         <v>107.95</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>77</v>
+      <c r="A77" s="2">
+        <v>45428</v>
       </c>
       <c r="B77">
         <v>106.23</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>78</v>
+      <c r="A78" s="2">
+        <v>45519</v>
       </c>
       <c r="B78">
         <v>105.49</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>79</v>
+      <c r="A79" s="2">
+        <v>45611</v>
       </c>
       <c r="B79">
         <v>105.04</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>80</v>
+      <c r="A80" s="2">
+        <v>45703</v>
       </c>
       <c r="B80">
         <v>105.72</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>81</v>
+      <c r="A81" s="2">
+        <v>45793</v>
       </c>
       <c r="B81">
         <v>105.13</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>82</v>
+      <c r="A82" s="2">
+        <v>45884</v>
       </c>
       <c r="B82">
         <v>105.26</v>
